--- a/CustomHatsGM.xlsx
+++ b/CustomHatsGM.xlsx
@@ -52,7 +52,7 @@
     <t xml:space="preserve">R1</t>
   </si>
   <si>
-    <t xml:space="preserve">GM-Haoming Community Hat’s</t>
+    <t xml:space="preserve">GM-Haoming Community Hats</t>
   </si>
   <si>
     <t xml:space="preserve">SoapBubble_adaptive.png</t>
@@ -173,10 +173,10 @@
   <dimension ref="A1:H1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K12" activeCellId="0" sqref="K12"/>
+      <selection pane="topLeft" activeCell="F34" activeCellId="0" sqref="F33:F34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7.89453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="7.88671875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="16.93"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="26.42"/>

--- a/CustomHatsGM.xlsx
+++ b/CustomHatsGM.xlsx
@@ -52,7 +52,7 @@
     <t xml:space="preserve">R1</t>
   </si>
   <si>
-    <t xml:space="preserve">GM-Haoming Community Hats</t>
+    <t xml:space="preserve">01haomingHat</t>
   </si>
   <si>
     <t xml:space="preserve">SoapBubble_adaptive.png</t>
@@ -173,7 +173,7 @@
   <dimension ref="A1:H1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F34" activeCellId="0" sqref="F33:F34"/>
+      <selection pane="topLeft" activeCell="D8" activeCellId="0" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.88671875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/CustomHatsGM.xlsx
+++ b/CustomHatsGM.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
   <si>
     <t xml:space="preserve">name</t>
   </si>
@@ -59,6 +59,12 @@
   </si>
   <si>
     <t xml:space="preserve">SoapBubble_adaptive_climb.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Selfie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">selfie_adaptive.png</t>
   </si>
 </sst>
 </file>
@@ -68,7 +74,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -100,6 +106,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="2">
@@ -144,12 +157,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -173,7 +190,7 @@
   <dimension ref="A1:H1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D8" activeCellId="0" sqref="D8"/>
+      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.88671875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -226,7 +243,20 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/CustomHatsGM.xlsx
+++ b/CustomHatsGM.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
   <si>
     <t xml:space="preserve">name</t>
   </si>
@@ -65,6 +65,27 @@
   </si>
   <si>
     <t xml:space="preserve">selfie_adaptive.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enoki</t>
+  </si>
+  <si>
+    <t xml:space="preserve">enoki</t>
+  </si>
+  <si>
+    <t xml:space="preserve">enoki.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">enoki_climb.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Omochi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">omochi.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">omochi_climb.png</t>
   </si>
 </sst>
 </file>
@@ -190,7 +211,7 @@
   <dimension ref="A1:H1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+      <selection pane="topLeft" activeCell="F6" activeCellId="0" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.88671875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -257,8 +278,40 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/CustomHatsGM.xlsx
+++ b/CustomHatsGM.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
   <si>
     <t xml:space="preserve">name</t>
   </si>
@@ -86,6 +86,15 @@
   </si>
   <si>
     <t xml:space="preserve">omochi_climb.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Takenoko</t>
+  </si>
+  <si>
+    <t xml:space="preserve">takenoko_adaptive.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">takenoko_climb_adaptive.png</t>
   </si>
 </sst>
 </file>
@@ -211,7 +220,7 @@
   <dimension ref="A1:H1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F6" activeCellId="0" sqref="F6"/>
+      <selection pane="topLeft" activeCell="F10" activeCellId="0" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.88671875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -312,7 +321,23 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>24</v>
+      </c>
+    </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/CustomHatsGM.xlsx
+++ b/CustomHatsGM.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="29">
   <si>
     <t xml:space="preserve">name</t>
   </si>
@@ -95,6 +95,18 @@
   </si>
   <si>
     <t xml:space="preserve">takenoko_climb_adaptive.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flashlight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flashlight_bounce_adaptive.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flashlight_climb_adaptive.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flashlight_bounce_flip_adaptive.png</t>
   </si>
 </sst>
 </file>
@@ -220,7 +232,7 @@
   <dimension ref="A1:H1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F10" activeCellId="0" sqref="F10"/>
+      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.88671875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -338,7 +350,26 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="G7" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/CustomHatsGM.xlsx
+++ b/CustomHatsGM.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="38">
   <si>
     <t xml:space="preserve">name</t>
   </si>
@@ -107,6 +107,33 @@
   </si>
   <si>
     <t xml:space="preserve">flashlight_bounce_flip_adaptive.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mic_adaptive.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enoki Adaptive</t>
+  </si>
+  <si>
+    <t xml:space="preserve">enoki2_adaptive.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">enoki2_climb_adaptive.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Box</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BOX_adaptive.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BOX_back_adaptive.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BOX_climb_adaptive.png</t>
   </si>
 </sst>
 </file>
@@ -232,7 +259,7 @@
   <dimension ref="A1:H1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
+      <selection pane="topLeft" activeCell="C14" activeCellId="0" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.88671875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -370,9 +397,57 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="F10" s="0" t="s">
+        <v>37</v>
+      </c>
+    </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/CustomHatsGM.xlsx
+++ b/CustomHatsGM.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="39">
   <si>
     <t xml:space="preserve">name</t>
   </si>
@@ -67,57 +67,48 @@
     <t xml:space="preserve">selfie_adaptive.png</t>
   </si>
   <si>
+    <t xml:space="preserve">Omochi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">enoki</t>
+  </si>
+  <si>
+    <t xml:space="preserve">omochi.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">omochi_climb.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Takenoko</t>
+  </si>
+  <si>
+    <t xml:space="preserve">takenoko_adaptive.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">takenoko_climb_adaptive.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flashlight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flashlight_bounce_adaptive.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flashlight_climb_adaptive.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flashlight_bounce_flip_adaptive.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mic_adaptive.png</t>
+  </si>
+  <si>
     <t xml:space="preserve">Enoki</t>
   </si>
   <si>
-    <t xml:space="preserve">enoki</t>
-  </si>
-  <si>
-    <t xml:space="preserve">enoki.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">enoki_climb.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Omochi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">omochi.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">omochi_climb.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Takenoko</t>
-  </si>
-  <si>
-    <t xml:space="preserve">takenoko_adaptive.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">takenoko_climb_adaptive.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Flashlight</t>
-  </si>
-  <si>
-    <t xml:space="preserve">flashlight_bounce_adaptive.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">flashlight_climb_adaptive.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">flashlight_bounce_flip_adaptive.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mic_adaptive.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Enoki Adaptive</t>
-  </si>
-  <si>
     <t xml:space="preserve">enoki2_adaptive.png</t>
   </si>
   <si>
@@ -134,6 +125,18 @@
   </si>
   <si>
     <t xml:space="preserve">BOX_climb_adaptive.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hedgehog</t>
+  </si>
+  <si>
+    <t xml:space="preserve">鹿屋つかさ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">harinezumi.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">harinezumi_climb.png</t>
   </si>
 </sst>
 </file>
@@ -259,7 +262,7 @@
   <dimension ref="A1:H1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C14" activeCellId="0" sqref="C14"/>
+      <selection pane="topLeft" activeCell="C12" activeCellId="0" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.88671875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -365,7 +368,7 @@
         <v>22</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C6" s="0" t="s">
         <v>10</v>
@@ -376,30 +379,27 @@
       <c r="F6" s="0" t="s">
         <v>24</v>
       </c>
+      <c r="G6" s="0" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C7" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="F7" s="0" t="s">
         <v>27</v>
-      </c>
-      <c r="G7" s="0" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B8" s="0" t="s">
         <v>16</v>
@@ -408,6 +408,9 @@
         <v>10</v>
       </c>
       <c r="D8" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" s="0" t="s">
         <v>30</v>
       </c>
     </row>
@@ -424,28 +427,28 @@
       <c r="D9" s="0" t="s">
         <v>32</v>
       </c>
+      <c r="E9" s="0" t="s">
+        <v>33</v>
+      </c>
       <c r="F9" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="C10" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="E10" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -531,7 +534,7 @@
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/CustomHatsGM.xlsx
+++ b/CustomHatsGM.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="49">
   <si>
     <t xml:space="preserve">name</t>
   </si>
@@ -137,6 +137,36 @@
   </si>
   <si>
     <t xml:space="preserve">harinezumi_climb.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hime</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9on</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hime.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hime_climb.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Otono</t>
+  </si>
+  <si>
+    <t xml:space="preserve">otono.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">otono_climb.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Matryoshka</t>
+  </si>
+  <si>
+    <t xml:space="preserve">matryoshka.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">matryoshka_climb.png</t>
   </si>
 </sst>
 </file>
@@ -262,7 +292,7 @@
   <dimension ref="A1:H1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C12" activeCellId="0" sqref="C12"/>
+      <selection pane="topLeft" activeCell="L9" activeCellId="0" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.88671875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -451,9 +481,57 @@
         <v>38</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="F11" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="F13" s="0" t="s">
+        <v>48</v>
+      </c>
+    </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -534,7 +612,7 @@
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/CustomHatsGM.xlsx
+++ b/CustomHatsGM.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="52">
   <si>
     <t xml:space="preserve">name</t>
   </si>
@@ -167,6 +167,15 @@
   </si>
   <si>
     <t xml:space="preserve">matryoshka_climb.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chu-ni</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chu-ni_adaptive.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chu-ni_climb_adaptive.png</t>
   </si>
 </sst>
 </file>
@@ -292,7 +301,7 @@
   <dimension ref="A1:H1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L9" activeCellId="0" sqref="L9"/>
+      <selection pane="topLeft" activeCell="D17" activeCellId="0" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.88671875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -532,7 +541,23 @@
         <v>48</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="F14" s="0" t="s">
+        <v>51</v>
+      </c>
+    </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/CustomHatsGM.xlsx
+++ b/CustomHatsGM.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="55">
   <si>
     <t xml:space="preserve">name</t>
   </si>
@@ -176,6 +176,15 @@
   </si>
   <si>
     <t xml:space="preserve">chu-ni_climb_adaptive.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Teddy Bear</t>
+  </si>
+  <si>
+    <t xml:space="preserve">teddy bear_adaptive.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">teddy bear_climb_adaptive.png</t>
   </si>
 </sst>
 </file>
@@ -301,7 +310,7 @@
   <dimension ref="A1:H1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D17" activeCellId="0" sqref="D17"/>
+      <selection pane="topLeft" activeCell="C17" activeCellId="0" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.88671875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -558,7 +567,23 @@
         <v>51</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="F15" s="0" t="s">
+        <v>54</v>
+      </c>
+    </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/CustomHatsGM.xlsx
+++ b/CustomHatsGM.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="59">
   <si>
     <t xml:space="preserve">name</t>
   </si>
@@ -185,6 +185,18 @@
   </si>
   <si>
     <t xml:space="preserve">teddy bear_climb_adaptive.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kendama</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kendama_bounce_adaptive.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kendama_climb_adaptive.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kendama_flip_bounce_adaptive.png</t>
   </si>
 </sst>
 </file>
@@ -310,7 +322,7 @@
   <dimension ref="A1:H1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C17" activeCellId="0" sqref="C17"/>
+      <selection pane="topLeft" activeCell="G19" activeCellId="0" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.88671875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -584,7 +596,26 @@
         <v>54</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="F16" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="G16" s="0" t="s">
+        <v>58</v>
+      </c>
+    </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/CustomHatsGM.xlsx
+++ b/CustomHatsGM.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="102">
   <si>
     <t xml:space="preserve">name</t>
   </si>
@@ -160,15 +160,6 @@
     <t xml:space="preserve">otono_climb.png</t>
   </si>
   <si>
-    <t xml:space="preserve">Matryoshka</t>
-  </si>
-  <si>
-    <t xml:space="preserve">matryoshka.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">matryoshka_climb.png</t>
-  </si>
-  <si>
     <t xml:space="preserve">Chu-ni</t>
   </si>
   <si>
@@ -197,6 +188,144 @@
   </si>
   <si>
     <t xml:space="preserve">kendama_flip_bounce_adaptive.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">America</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nationalFlagHat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">America.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">America_climb.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">England</t>
+  </si>
+  <si>
+    <t xml:space="preserve">England.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">England_climb.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Germany</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Germany.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Germany_climb.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Greece</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Greece.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Greece_climb.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Italy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Italy.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Italy_climb.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jamaica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jamaica.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jamaica_climb.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Japan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Japan.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Japan_climb.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pakistan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pakistan.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pakistan_climb.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Panama</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Panama.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Panama_climb.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Russia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Russia.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Russia_climb.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seychelles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seychelles.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seychelles_climb.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spain.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spain_climb.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sri Lanka</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SriLanka.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SriLanka_climb.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Turkey</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Turkey.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Turkey_climb.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ukraine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ukraine.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ukraine_climb.png</t>
   </si>
 </sst>
 </file>
@@ -322,7 +451,7 @@
   <dimension ref="A1:H1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G19" activeCellId="0" sqref="G19"/>
+      <selection pane="topLeft" activeCell="F31" activeCellId="0" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.88671875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -550,7 +679,7 @@
         <v>46</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="C13" s="0" t="s">
         <v>10</v>
@@ -567,7 +696,7 @@
         <v>49</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C14" s="0" t="s">
         <v>10</v>
@@ -584,7 +713,7 @@
         <v>52</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C15" s="0" t="s">
         <v>10</v>
@@ -595,41 +724,265 @@
       <c r="F15" s="0" t="s">
         <v>54</v>
       </c>
+      <c r="G15" s="0" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>10</v>
+        <v>57</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="G16" s="0" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="F17" s="0" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="F18" s="0" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="F19" s="0" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="D20" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="F20" s="0" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="D21" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="F21" s="0" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="D22" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="F22" s="0" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="D23" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="F23" s="0" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="D24" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="F24" s="0" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="C25" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="D25" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="F25" s="0" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="B26" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="C26" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="D26" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="F26" s="0" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="B27" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="C27" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="D27" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="F27" s="0" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="B28" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="C28" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="D28" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="F28" s="0" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="B29" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="C29" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="D29" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="F29" s="0" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="B30" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="C30" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="D30" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="F30" s="0" t="s">
+        <v>101</v>
+      </c>
+    </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -693,7 +1046,7 @@
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/CustomHatsGM.xlsx
+++ b/CustomHatsGM.xlsx
@@ -193,7 +193,7 @@
     <t xml:space="preserve">America</t>
   </si>
   <si>
-    <t xml:space="preserve">nationalFlagHat</t>
+    <t xml:space="preserve">nationalFlagHats</t>
   </si>
   <si>
     <t xml:space="preserve">America.png</t>
@@ -304,10 +304,10 @@
     <t xml:space="preserve">Sri Lanka</t>
   </si>
   <si>
-    <t xml:space="preserve">SriLanka.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SriLanka_climb.png</t>
+    <t xml:space="preserve">Srilanka.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Srilanka_climb.png</t>
   </si>
   <si>
     <t xml:space="preserve">Turkey</t>
@@ -451,7 +451,7 @@
   <dimension ref="A1:H1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F31" activeCellId="0" sqref="F31"/>
+      <selection pane="topLeft" activeCell="D28" activeCellId="0" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.88671875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/CustomHatsGM.xlsx
+++ b/CustomHatsGM.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="105">
   <si>
     <t xml:space="preserve">name</t>
   </si>
@@ -326,6 +326,15 @@
   </si>
   <si>
     <t xml:space="preserve">Ukraine_climb.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Panda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Panda_adaptive.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Panda_adaptive_climb.png</t>
   </si>
 </sst>
 </file>
@@ -451,7 +460,7 @@
   <dimension ref="A1:H1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D28" activeCellId="0" sqref="D28"/>
+      <selection pane="topLeft" activeCell="F32" activeCellId="0" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.88671875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -983,7 +992,23 @@
         <v>101</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="B31" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="C31" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D31" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="F31" s="0" t="s">
+        <v>104</v>
+      </c>
+    </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/CustomHatsGM.xlsx
+++ b/CustomHatsGM.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="126">
   <si>
     <t xml:space="preserve">name</t>
   </si>
@@ -217,6 +217,9 @@
     <t xml:space="preserve">Germany.png</t>
   </si>
   <si>
+    <t xml:space="preserve">Germany_behind.png</t>
+  </si>
+  <si>
     <t xml:space="preserve">Germany_climb.png</t>
   </si>
   <si>
@@ -226,6 +229,9 @@
     <t xml:space="preserve">Greece.png</t>
   </si>
   <si>
+    <t xml:space="preserve">Greece_behind.png</t>
+  </si>
+  <si>
     <t xml:space="preserve">Greece_climb.png</t>
   </si>
   <si>
@@ -253,9 +259,15 @@
     <t xml:space="preserve">Japan.png</t>
   </si>
   <si>
+    <t xml:space="preserve">Japan_behind.png</t>
+  </si>
+  <si>
     <t xml:space="preserve">Japan_climb.png</t>
   </si>
   <si>
+    <t xml:space="preserve">Japan_behind_flip.png</t>
+  </si>
+  <si>
     <t xml:space="preserve">Pakistan</t>
   </si>
   <si>
@@ -335,6 +347,57 @@
   </si>
   <si>
     <t xml:space="preserve">Panda_adaptive_climb.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Camera</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CameraCrew</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cameracrew_adaptive.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cameracrew_climb.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Director</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10on</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Directorcrew_avaptive.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Directorcrew_climb.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Light</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11on</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rightcrew_adaptive.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rightcrew_behind.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rightcrew_climb.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sound</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12on</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Soundcrew_adaptive.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Soundcrew_climb.png</t>
   </si>
 </sst>
 </file>
@@ -459,8 +522,8 @@
   </sheetPr>
   <dimension ref="A1:H1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F32" activeCellId="0" sqref="F32"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C37" activeCellId="0" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.88671875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -784,13 +847,16 @@
       <c r="D18" s="0" t="s">
         <v>64</v>
       </c>
+      <c r="E18" s="0" t="s">
+        <v>65</v>
+      </c>
       <c r="F18" s="0" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B19" s="0" t="s">
         <v>40</v>
@@ -799,15 +865,18 @@
         <v>57</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
+      </c>
+      <c r="E19" s="0" t="s">
+        <v>69</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B20" s="0" t="s">
         <v>40</v>
@@ -816,15 +885,15 @@
         <v>57</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B21" s="0" t="s">
         <v>40</v>
@@ -833,15 +902,15 @@
         <v>57</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B22" s="0" t="s">
         <v>40</v>
@@ -850,15 +919,21 @@
         <v>57</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>76</v>
+        <v>78</v>
+      </c>
+      <c r="E22" s="0" t="s">
+        <v>79</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>77</v>
+        <v>80</v>
+      </c>
+      <c r="H22" s="0" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B23" s="0" t="s">
         <v>40</v>
@@ -867,15 +942,15 @@
         <v>57</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B24" s="0" t="s">
         <v>40</v>
@@ -884,15 +959,15 @@
         <v>57</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B25" s="0" t="s">
         <v>40</v>
@@ -901,15 +976,15 @@
         <v>57</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="F25" s="0" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B26" s="0" t="s">
         <v>40</v>
@@ -918,15 +993,15 @@
         <v>57</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="F26" s="0" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B27" s="0" t="s">
         <v>40</v>
@@ -935,15 +1010,15 @@
         <v>57</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="F27" s="0" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B28" s="0" t="s">
         <v>40</v>
@@ -952,15 +1027,15 @@
         <v>57</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="F28" s="0" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B29" s="0" t="s">
         <v>40</v>
@@ -969,15 +1044,15 @@
         <v>57</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="F29" s="0" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B30" s="0" t="s">
         <v>40</v>
@@ -986,15 +1061,15 @@
         <v>57</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="F30" s="0" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B31" s="0" t="s">
         <v>40</v>
@@ -1003,16 +1078,83 @@
         <v>10</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="F31" s="0" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+        <v>108</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="B32" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="C32" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="D32" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="F32" s="0" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="B33" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="C33" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="D33" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="F33" s="0" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="B34" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="C34" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="D34" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="E34" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="F34" s="0" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="B35" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="C35" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="D35" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="F35" s="0" t="s">
+        <v>125</v>
+      </c>
+    </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/CustomHatsGM.xlsx
+++ b/CustomHatsGM.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="127">
   <si>
     <t xml:space="preserve">name</t>
   </si>
@@ -364,9 +364,6 @@
     <t xml:space="preserve">Director</t>
   </si>
   <si>
-    <t xml:space="preserve">10on</t>
-  </si>
-  <si>
     <t xml:space="preserve">Directorcrew_avaptive.png</t>
   </si>
   <si>
@@ -376,9 +373,6 @@
     <t xml:space="preserve">Light</t>
   </si>
   <si>
-    <t xml:space="preserve">11on</t>
-  </si>
-  <si>
     <t xml:space="preserve">Rightcrew_adaptive.png</t>
   </si>
   <si>
@@ -391,13 +385,22 @@
     <t xml:space="preserve">Sound</t>
   </si>
   <si>
-    <t xml:space="preserve">12on</t>
-  </si>
-  <si>
     <t xml:space="preserve">Soundcrew_adaptive.png</t>
   </si>
   <si>
     <t xml:space="preserve">Soundcrew_climb.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SteamPunk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NonohaTect</t>
+  </si>
+  <si>
+    <t xml:space="preserve">steampunk.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">steampunk_climb.png</t>
   </si>
 </sst>
 </file>
@@ -522,8 +525,8 @@
   </sheetPr>
   <dimension ref="A1:H1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C37" activeCellId="0" sqref="C37"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C40" activeCellId="0" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.88671875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1106,56 +1109,72 @@
         <v>113</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>114</v>
+        <v>40</v>
       </c>
       <c r="C33" s="0" t="s">
         <v>110</v>
       </c>
       <c r="D33" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="F33" s="0" t="s">
         <v>115</v>
-      </c>
-      <c r="F33" s="0" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>118</v>
+        <v>40</v>
       </c>
       <c r="C34" s="0" t="s">
         <v>110</v>
       </c>
       <c r="D34" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="E34" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="F34" s="0" t="s">
         <v>119</v>
-      </c>
-      <c r="E34" s="0" t="s">
-        <v>120</v>
-      </c>
-      <c r="F34" s="0" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>123</v>
+        <v>40</v>
       </c>
       <c r="C35" s="0" t="s">
         <v>110</v>
       </c>
       <c r="D35" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="F35" s="0" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="B36" s="0" t="s">
         <v>124</v>
       </c>
-      <c r="F35" s="0" t="s">
+      <c r="C36" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="D36" s="0" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="F36" s="0" t="s">
+        <v>126</v>
+      </c>
+    </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/CustomHatsGM.xlsx
+++ b/CustomHatsGM.xlsx
@@ -364,7 +364,7 @@
     <t xml:space="preserve">Director</t>
   </si>
   <si>
-    <t xml:space="preserve">Directorcrew_avaptive.png</t>
+    <t xml:space="preserve">Directorcrew_adaptive.png</t>
   </si>
   <si>
     <t xml:space="preserve">Directorcrew_climb.png</t>
@@ -526,7 +526,7 @@
   <dimension ref="A1:H1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C40" activeCellId="0" sqref="C40"/>
+      <selection pane="topLeft" activeCell="E38" activeCellId="0" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.88671875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/CustomHatsGM.xlsx
+++ b/CustomHatsGM.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="148">
   <si>
     <t xml:space="preserve">name</t>
   </si>
@@ -190,6 +190,18 @@
     <t xml:space="preserve">kendama_flip_bounce_adaptive.png</t>
   </si>
   <si>
+    <t xml:space="preserve">Drawing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">drawing_adaptive.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">drawing_climb_adaptive.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">drawing_flip_adaptive.png</t>
+  </si>
+  <si>
     <t xml:space="preserve">America</t>
   </si>
   <si>
@@ -397,10 +409,61 @@
     <t xml:space="preserve">NonohaTect</t>
   </si>
   <si>
+    <t xml:space="preserve">NanOHat</t>
+  </si>
+  <si>
     <t xml:space="preserve">steampunk.png</t>
   </si>
   <si>
     <t xml:space="preserve">steampunk_climb.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HsParka</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hsParka.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hsParka_climb.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OkashiParka</t>
+  </si>
+  <si>
+    <t xml:space="preserve">okashiParka.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">okashiParka_climb.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MiniFurisode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">miniFurisode.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">miniFurisode_climb.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PawCoat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pawCoat.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pawCoat_back.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pawCoat_climb.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CatHood</t>
+  </si>
+  <si>
+    <t xml:space="preserve">catHood.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">catHood_climb.png</t>
   </si>
 </sst>
 </file>
@@ -525,8 +588,8 @@
   </sheetPr>
   <dimension ref="A1:H1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E38" activeCellId="0" sqref="E38"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F42" activeCellId="0" sqref="A36:F42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.88671875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -808,15 +871,18 @@
         <v>56</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="C16" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" s="0" t="s">
         <v>57</v>
       </c>
-      <c r="D16" s="0" t="s">
+      <c r="F16" s="0" t="s">
         <v>58</v>
       </c>
-      <c r="F16" s="0" t="s">
+      <c r="G16" s="0" t="s">
         <v>59</v>
       </c>
     </row>
@@ -828,29 +894,26 @@
         <v>40</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B18" s="0" t="s">
         <v>40</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="E18" s="0" t="s">
         <v>65</v>
       </c>
       <c r="F18" s="0" t="s">
@@ -865,7 +928,7 @@
         <v>40</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="D19" s="0" t="s">
         <v>68</v>
@@ -885,217 +948,220 @@
         <v>40</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="D20" s="0" t="s">
         <v>72</v>
       </c>
+      <c r="E20" s="0" t="s">
+        <v>73</v>
+      </c>
       <c r="F20" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B21" s="0" t="s">
         <v>40</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B22" s="0" t="s">
         <v>40</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>78</v>
-      </c>
-      <c r="E22" s="0" t="s">
         <v>79</v>
       </c>
       <c r="F22" s="0" t="s">
         <v>80</v>
       </c>
-      <c r="H22" s="0" t="s">
-        <v>81</v>
-      </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="D23" s="0" t="s">
         <v>82</v>
       </c>
-      <c r="B23" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="C23" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="D23" s="0" t="s">
+      <c r="E23" s="0" t="s">
         <v>83</v>
       </c>
       <c r="F23" s="0" t="s">
         <v>84</v>
       </c>
+      <c r="H23" s="0" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B24" s="0" t="s">
         <v>40</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B25" s="0" t="s">
         <v>40</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F25" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B26" s="0" t="s">
         <v>40</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F26" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B27" s="0" t="s">
         <v>40</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F27" s="0" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B28" s="0" t="s">
         <v>40</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F28" s="0" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B29" s="0" t="s">
         <v>40</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F29" s="0" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B30" s="0" t="s">
         <v>40</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F30" s="0" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B31" s="0" t="s">
         <v>40</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>10</v>
+        <v>61</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F31" s="0" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B32" s="0" t="s">
         <v>40</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>110</v>
+        <v>10</v>
       </c>
       <c r="D32" s="0" t="s">
         <v>111</v>
@@ -1112,29 +1178,26 @@
         <v>40</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F33" s="0" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B34" s="0" t="s">
         <v>40</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>117</v>
-      </c>
-      <c r="E34" s="0" t="s">
         <v>118</v>
       </c>
       <c r="F34" s="0" t="s">
@@ -1149,24 +1212,27 @@
         <v>40</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="D35" s="0" t="s">
         <v>121</v>
       </c>
+      <c r="E35" s="0" t="s">
+        <v>122</v>
+      </c>
       <c r="F35" s="0" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>124</v>
+        <v>40</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="D36" s="0" t="s">
         <v>125</v>
@@ -1175,12 +1241,111 @@
         <v>126</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="B37" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="C37" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="D37" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="F37" s="0" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="B38" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="C38" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="D38" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="F38" s="0" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="B39" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="C39" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="D39" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="F39" s="0" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="B40" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="C40" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="D40" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="F40" s="0" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="0" t="s">
+        <v>141</v>
+      </c>
+      <c r="B41" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="C41" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="D41" s="0" t="s">
+        <v>142</v>
+      </c>
+      <c r="E41" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F41" s="0" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="B42" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="C42" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="D42" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="F42" s="0" t="s">
+        <v>147</v>
+      </c>
+    </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -1232,7 +1397,7 @@
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/CustomHatsGM.xlsx
+++ b/CustomHatsGM.xlsx
@@ -409,7 +409,7 @@
     <t xml:space="preserve">NonohaTect</t>
   </si>
   <si>
-    <t xml:space="preserve">NanOHat</t>
+    <t xml:space="preserve">NonOHat</t>
   </si>
   <si>
     <t xml:space="preserve">steampunk.png</t>
@@ -589,7 +589,7 @@
   <dimension ref="A1:H1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F42" activeCellId="0" sqref="A36:F42"/>
+      <selection pane="topLeft" activeCell="C44" activeCellId="0" sqref="C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.88671875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/CustomHatsGM.xlsx
+++ b/CustomHatsGM.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="155">
   <si>
     <t xml:space="preserve">name</t>
   </si>
@@ -464,6 +464,27 @@
   </si>
   <si>
     <t xml:space="preserve">catHood_climb.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Schrodinger’s Cat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">syureneko_adaptive.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">syureneko_climb_adaptive.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">syureneko_flip_adaptive.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Puppeteer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pape_adaptive.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pape_climb_adaptive.png</t>
   </si>
 </sst>
 </file>
@@ -588,8 +609,8 @@
   </sheetPr>
   <dimension ref="A1:H1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C44" activeCellId="0" sqref="C44"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E43" activeCellId="0" sqref="E43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.88671875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1346,8 +1367,43 @@
         <v>147</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="B43" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C43" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D43" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="F43" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="G43" s="0" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="0" t="s">
+        <v>152</v>
+      </c>
+      <c r="B44" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C44" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D44" s="0" t="s">
+        <v>153</v>
+      </c>
+      <c r="F44" s="0" t="s">
+        <v>154</v>
+      </c>
+    </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/CustomHatsGM.xlsx
+++ b/CustomHatsGM.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="255">
   <si>
     <t xml:space="preserve">name</t>
   </si>
@@ -485,6 +485,306 @@
   </si>
   <si>
     <t xml:space="preserve">pape_climb_adaptive.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cloud</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cloud.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cloud_climb.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hungry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hungry_adaptive.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hungry_adaptive_climb.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Magic carpet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01HaomingHat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Masiccarpet.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Masiccarpet_climb.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UFO.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UFO_climb.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ganmasu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">catudon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mememuraHat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ganmasu.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ganmasu_c.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ganmasu2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ganmasu2.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gusao</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gusao.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gusao_c.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gusao2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gusao2.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gusao2_b.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gusao2_c.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hatimanguu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hatimanguu.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hatimanguu_c.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hatimanguu2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hatimanguu2.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hatimanguu2_c.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hinaruka1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hinaruka1.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hinaruka1_c.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hinaruka2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hinaruka2.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hinaruka2_c.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iemon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">iemon.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">iemon_c.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iemon2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">iemon2.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">iemon2_c.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Latte</t>
+  </si>
+  <si>
+    <t xml:space="preserve">latte.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">latte_b.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">latte_c.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Latte2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">latte2.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">latte2_c.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maryo1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">maryo1.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">maryo1_c.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maryo2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">maryo2.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">maryo2_c.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mementomori</t>
+  </si>
+  <si>
+    <t xml:space="preserve">memenntomori.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">memenntomori_b.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">memenntomori_c.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mementomori2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">memenntomori2.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">memenntomori2_c.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meteo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">meteo.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">meteo_c.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meteo2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">meteo2.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">meteo2_c.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mizore</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mizore.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mizore_b.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mizore_c.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mizore2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mizore2.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mizore2_b.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mizore2_c.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reira-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reira-.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reira-_c.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reira-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reira-2.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reira-2_c.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sreimari</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sreimari.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sreimari_c.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sreimari2.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Upaparon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">upaparon.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">upaparon_c.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Upaparon2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">upaparon2.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">upaparon2_c.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zennkopasu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">zennkopasu.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">zennkopasu_c.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zennkopasu2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">zennkopasu2.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">zennkopasu2_c.png</t>
   </si>
 </sst>
 </file>
@@ -609,8 +909,8 @@
   </sheetPr>
   <dimension ref="A1:H1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E43" activeCellId="0" sqref="E43"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A52" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C76" activeCellId="0" sqref="C76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.88671875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1404,38 +1704,559 @@
         <v>154</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="B45" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="C45" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D45" s="0" t="s">
+        <v>156</v>
+      </c>
+      <c r="F45" s="0" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="0" t="s">
+        <v>158</v>
+      </c>
+      <c r="B46" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="C46" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D46" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="F46" s="0" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="B47" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="C47" s="0" t="s">
+        <v>162</v>
+      </c>
+      <c r="D47" s="0" t="s">
+        <v>163</v>
+      </c>
+      <c r="F47" s="0" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="B48" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="C48" s="0" t="s">
+        <v>162</v>
+      </c>
+      <c r="D48" s="0" t="s">
+        <v>165</v>
+      </c>
+      <c r="F48" s="0" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="0" t="s">
+        <v>167</v>
+      </c>
+      <c r="B49" s="0" t="s">
+        <v>168</v>
+      </c>
+      <c r="C49" s="0" t="s">
+        <v>169</v>
+      </c>
+      <c r="D49" s="0" t="s">
+        <v>170</v>
+      </c>
+      <c r="F49" s="0" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="B50" s="0" t="s">
+        <v>168</v>
+      </c>
+      <c r="C50" s="0" t="s">
+        <v>169</v>
+      </c>
+      <c r="D50" s="0" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="0" t="s">
+        <v>174</v>
+      </c>
+      <c r="B51" s="0" t="s">
+        <v>168</v>
+      </c>
+      <c r="C51" s="0" t="s">
+        <v>169</v>
+      </c>
+      <c r="D51" s="0" t="s">
+        <v>175</v>
+      </c>
+      <c r="F51" s="0" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="0" t="s">
+        <v>177</v>
+      </c>
+      <c r="B52" s="0" t="s">
+        <v>168</v>
+      </c>
+      <c r="C52" s="0" t="s">
+        <v>169</v>
+      </c>
+      <c r="D52" s="0" t="s">
+        <v>178</v>
+      </c>
+      <c r="E52" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="F52" s="0" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="0" t="s">
+        <v>181</v>
+      </c>
+      <c r="B53" s="0" t="s">
+        <v>168</v>
+      </c>
+      <c r="C53" s="0" t="s">
+        <v>169</v>
+      </c>
+      <c r="D53" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="F53" s="0" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="0" t="s">
+        <v>184</v>
+      </c>
+      <c r="B54" s="0" t="s">
+        <v>168</v>
+      </c>
+      <c r="C54" s="0" t="s">
+        <v>169</v>
+      </c>
+      <c r="D54" s="0" t="s">
+        <v>185</v>
+      </c>
+      <c r="F54" s="0" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="0" t="s">
+        <v>187</v>
+      </c>
+      <c r="B55" s="0" t="s">
+        <v>168</v>
+      </c>
+      <c r="C55" s="0" t="s">
+        <v>169</v>
+      </c>
+      <c r="D55" s="0" t="s">
+        <v>188</v>
+      </c>
+      <c r="F55" s="0" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="0" t="s">
+        <v>190</v>
+      </c>
+      <c r="B56" s="0" t="s">
+        <v>168</v>
+      </c>
+      <c r="C56" s="0" t="s">
+        <v>169</v>
+      </c>
+      <c r="D56" s="0" t="s">
+        <v>191</v>
+      </c>
+      <c r="F56" s="0" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="0" t="s">
+        <v>193</v>
+      </c>
+      <c r="B57" s="0" t="s">
+        <v>168</v>
+      </c>
+      <c r="C57" s="0" t="s">
+        <v>169</v>
+      </c>
+      <c r="D57" s="0" t="s">
+        <v>194</v>
+      </c>
+      <c r="F57" s="0" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="0" t="s">
+        <v>196</v>
+      </c>
+      <c r="B58" s="0" t="s">
+        <v>168</v>
+      </c>
+      <c r="C58" s="0" t="s">
+        <v>169</v>
+      </c>
+      <c r="D58" s="0" t="s">
+        <v>197</v>
+      </c>
+      <c r="F58" s="0" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="0" t="s">
+        <v>199</v>
+      </c>
+      <c r="B59" s="0" t="s">
+        <v>168</v>
+      </c>
+      <c r="C59" s="0" t="s">
+        <v>169</v>
+      </c>
+      <c r="D59" s="0" t="s">
+        <v>200</v>
+      </c>
+      <c r="E59" s="0" t="s">
+        <v>201</v>
+      </c>
+      <c r="F59" s="0" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="0" t="s">
+        <v>203</v>
+      </c>
+      <c r="B60" s="0" t="s">
+        <v>168</v>
+      </c>
+      <c r="C60" s="0" t="s">
+        <v>169</v>
+      </c>
+      <c r="D60" s="0" t="s">
+        <v>204</v>
+      </c>
+      <c r="F60" s="0" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="0" t="s">
+        <v>206</v>
+      </c>
+      <c r="B61" s="0" t="s">
+        <v>168</v>
+      </c>
+      <c r="C61" s="0" t="s">
+        <v>169</v>
+      </c>
+      <c r="D61" s="0" t="s">
+        <v>207</v>
+      </c>
+      <c r="F61" s="0" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="B62" s="0" t="s">
+        <v>168</v>
+      </c>
+      <c r="C62" s="0" t="s">
+        <v>169</v>
+      </c>
+      <c r="D62" s="0" t="s">
+        <v>210</v>
+      </c>
+      <c r="F62" s="0" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="0" t="s">
+        <v>212</v>
+      </c>
+      <c r="B63" s="0" t="s">
+        <v>168</v>
+      </c>
+      <c r="C63" s="0" t="s">
+        <v>169</v>
+      </c>
+      <c r="D63" s="0" t="s">
+        <v>213</v>
+      </c>
+      <c r="E63" s="0" t="s">
+        <v>214</v>
+      </c>
+      <c r="F63" s="0" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="0" t="s">
+        <v>216</v>
+      </c>
+      <c r="B64" s="0" t="s">
+        <v>168</v>
+      </c>
+      <c r="C64" s="0" t="s">
+        <v>169</v>
+      </c>
+      <c r="D64" s="0" t="s">
+        <v>217</v>
+      </c>
+      <c r="F64" s="0" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="0" t="s">
+        <v>219</v>
+      </c>
+      <c r="B65" s="0" t="s">
+        <v>168</v>
+      </c>
+      <c r="C65" s="0" t="s">
+        <v>169</v>
+      </c>
+      <c r="D65" s="0" t="s">
+        <v>220</v>
+      </c>
+      <c r="F65" s="0" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="0" t="s">
+        <v>222</v>
+      </c>
+      <c r="B66" s="0" t="s">
+        <v>168</v>
+      </c>
+      <c r="C66" s="0" t="s">
+        <v>169</v>
+      </c>
+      <c r="D66" s="0" t="s">
+        <v>223</v>
+      </c>
+      <c r="F66" s="0" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="0" t="s">
+        <v>225</v>
+      </c>
+      <c r="B67" s="0" t="s">
+        <v>168</v>
+      </c>
+      <c r="C67" s="0" t="s">
+        <v>169</v>
+      </c>
+      <c r="D67" s="0" t="s">
+        <v>226</v>
+      </c>
+      <c r="E67" s="0" t="s">
+        <v>227</v>
+      </c>
+      <c r="F67" s="0" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="0" t="s">
+        <v>229</v>
+      </c>
+      <c r="B68" s="0" t="s">
+        <v>168</v>
+      </c>
+      <c r="C68" s="0" t="s">
+        <v>169</v>
+      </c>
+      <c r="D68" s="0" t="s">
+        <v>230</v>
+      </c>
+      <c r="E68" s="0" t="s">
+        <v>231</v>
+      </c>
+      <c r="F68" s="0" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="0" t="s">
+        <v>233</v>
+      </c>
+      <c r="B69" s="0" t="s">
+        <v>168</v>
+      </c>
+      <c r="C69" s="0" t="s">
+        <v>169</v>
+      </c>
+      <c r="D69" s="0" t="s">
+        <v>234</v>
+      </c>
+      <c r="F69" s="0" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="0" t="s">
+        <v>236</v>
+      </c>
+      <c r="B70" s="0" t="s">
+        <v>168</v>
+      </c>
+      <c r="C70" s="0" t="s">
+        <v>169</v>
+      </c>
+      <c r="D70" s="0" t="s">
+        <v>237</v>
+      </c>
+      <c r="F70" s="0" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="0" t="s">
+        <v>239</v>
+      </c>
+      <c r="B71" s="0" t="s">
+        <v>168</v>
+      </c>
+      <c r="C71" s="0" t="s">
+        <v>169</v>
+      </c>
+      <c r="D71" s="0" t="s">
+        <v>240</v>
+      </c>
+      <c r="F71" s="0" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="0" t="s">
+        <v>239</v>
+      </c>
+      <c r="B72" s="0" t="s">
+        <v>168</v>
+      </c>
+      <c r="C72" s="0" t="s">
+        <v>169</v>
+      </c>
+      <c r="D72" s="0" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="0" t="s">
+        <v>243</v>
+      </c>
+      <c r="B73" s="0" t="s">
+        <v>168</v>
+      </c>
+      <c r="C73" s="0" t="s">
+        <v>169</v>
+      </c>
+      <c r="D73" s="0" t="s">
+        <v>244</v>
+      </c>
+      <c r="F73" s="0" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="0" t="s">
+        <v>246</v>
+      </c>
+      <c r="B74" s="0" t="s">
+        <v>168</v>
+      </c>
+      <c r="C74" s="0" t="s">
+        <v>169</v>
+      </c>
+      <c r="D74" s="0" t="s">
+        <v>247</v>
+      </c>
+      <c r="F74" s="0" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="0" t="s">
+        <v>249</v>
+      </c>
+      <c r="B75" s="0" t="s">
+        <v>168</v>
+      </c>
+      <c r="C75" s="0" t="s">
+        <v>169</v>
+      </c>
+      <c r="D75" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="F75" s="0" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="0" t="s">
+        <v>252</v>
+      </c>
+      <c r="B76" s="0" t="s">
+        <v>168</v>
+      </c>
+      <c r="C76" s="0" t="s">
+        <v>169</v>
+      </c>
+      <c r="D76" s="0" t="s">
+        <v>253</v>
+      </c>
+      <c r="F76" s="0" t="s">
+        <v>254</v>
+      </c>
+    </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/CustomHatsGM.xlsx
+++ b/CustomHatsGM.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="256">
   <si>
     <t xml:space="preserve">name</t>
   </si>
@@ -515,6 +515,9 @@
   </si>
   <si>
     <t xml:space="preserve">Masiccarpet_climb.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UFO</t>
   </si>
   <si>
     <t xml:space="preserve">UFO.png</t>
@@ -909,8 +912,8 @@
   </sheetPr>
   <dimension ref="A1:H1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A52" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C76" activeCellId="0" sqref="C76"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A43" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A49" activeCellId="0" sqref="A49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.88671875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1757,7 +1760,7 @@
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="B48" s="0" t="s">
         <v>40</v>
@@ -1766,495 +1769,495 @@
         <v>162</v>
       </c>
       <c r="D48" s="0" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F48" s="0" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D49" s="0" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F49" s="0" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D50" s="0" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D51" s="0" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="F51" s="0" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D52" s="0" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="E52" s="0" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F52" s="0" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D53" s="0" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="F53" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D54" s="0" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="F54" s="0" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D55" s="0" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F55" s="0" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C56" s="0" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D56" s="0" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F56" s="0" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D57" s="0" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F57" s="0" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D58" s="0" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F58" s="0" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C59" s="0" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D59" s="0" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="E59" s="0" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="F59" s="0" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C60" s="0" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D60" s="0" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="F60" s="0" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C61" s="0" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D61" s="0" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="F61" s="0" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C62" s="0" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D62" s="0" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F62" s="0" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C63" s="0" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D63" s="0" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="E63" s="0" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="F63" s="0" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C64" s="0" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D64" s="0" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="F64" s="0" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C65" s="0" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D65" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="F65" s="0" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C66" s="0" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D66" s="0" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="F66" s="0" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C67" s="0" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D67" s="0" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E67" s="0" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="F67" s="0" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C68" s="0" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D68" s="0" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E68" s="0" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="F68" s="0" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C69" s="0" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D69" s="0" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="F69" s="0" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C70" s="0" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D70" s="0" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="F70" s="0" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B71" s="0" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C71" s="0" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D71" s="0" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="F71" s="0" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B72" s="0" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C72" s="0" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D72" s="0" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B73" s="0" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C73" s="0" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D73" s="0" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="F73" s="0" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B74" s="0" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C74" s="0" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D74" s="0" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="F74" s="0" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B75" s="0" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C75" s="0" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D75" s="0" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="F75" s="0" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B76" s="0" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C76" s="0" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D76" s="0" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="F76" s="0" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/CustomHatsGM.xlsx
+++ b/CustomHatsGM.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="255">
   <si>
     <t xml:space="preserve">name</t>
   </si>
@@ -506,9 +506,6 @@
   </si>
   <si>
     <t xml:space="preserve">Magic carpet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01HaomingHat</t>
   </si>
   <si>
     <t xml:space="preserve">Masiccarpet.png</t>
@@ -912,8 +909,8 @@
   </sheetPr>
   <dimension ref="A1:H1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A43" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A49" activeCellId="0" sqref="A49"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A37" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C49" activeCellId="0" sqref="C49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.88671875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1749,515 +1746,515 @@
         <v>40</v>
       </c>
       <c r="C47" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D47" s="0" t="s">
         <v>162</v>
       </c>
-      <c r="D47" s="0" t="s">
+      <c r="F47" s="0" t="s">
         <v>163</v>
-      </c>
-      <c r="F47" s="0" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
+        <v>164</v>
+      </c>
+      <c r="B48" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="C48" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D48" s="0" t="s">
         <v>165</v>
       </c>
-      <c r="B48" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="C48" s="0" t="s">
-        <v>162</v>
-      </c>
-      <c r="D48" s="0" t="s">
+      <c r="F48" s="0" t="s">
         <v>166</v>
-      </c>
-      <c r="F48" s="0" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C49" s="0" t="s">
+        <v>169</v>
+      </c>
+      <c r="D49" s="0" t="s">
         <v>170</v>
       </c>
-      <c r="D49" s="0" t="s">
+      <c r="F49" s="0" t="s">
         <v>171</v>
-      </c>
-      <c r="F49" s="0" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="B50" s="0" t="s">
+        <v>168</v>
+      </c>
+      <c r="C50" s="0" t="s">
+        <v>169</v>
+      </c>
+      <c r="D50" s="0" t="s">
         <v>173</v>
-      </c>
-      <c r="B50" s="0" t="s">
-        <v>169</v>
-      </c>
-      <c r="C50" s="0" t="s">
-        <v>170</v>
-      </c>
-      <c r="D50" s="0" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
+        <v>174</v>
+      </c>
+      <c r="B51" s="0" t="s">
+        <v>168</v>
+      </c>
+      <c r="C51" s="0" t="s">
+        <v>169</v>
+      </c>
+      <c r="D51" s="0" t="s">
         <v>175</v>
       </c>
-      <c r="B51" s="0" t="s">
-        <v>169</v>
-      </c>
-      <c r="C51" s="0" t="s">
-        <v>170</v>
-      </c>
-      <c r="D51" s="0" t="s">
+      <c r="F51" s="0" t="s">
         <v>176</v>
-      </c>
-      <c r="F51" s="0" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
+        <v>177</v>
+      </c>
+      <c r="B52" s="0" t="s">
+        <v>168</v>
+      </c>
+      <c r="C52" s="0" t="s">
+        <v>169</v>
+      </c>
+      <c r="D52" s="0" t="s">
         <v>178</v>
       </c>
-      <c r="B52" s="0" t="s">
-        <v>169</v>
-      </c>
-      <c r="C52" s="0" t="s">
-        <v>170</v>
-      </c>
-      <c r="D52" s="0" t="s">
+      <c r="E52" s="0" t="s">
         <v>179</v>
       </c>
-      <c r="E52" s="0" t="s">
+      <c r="F52" s="0" t="s">
         <v>180</v>
-      </c>
-      <c r="F52" s="0" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
+        <v>181</v>
+      </c>
+      <c r="B53" s="0" t="s">
+        <v>168</v>
+      </c>
+      <c r="C53" s="0" t="s">
+        <v>169</v>
+      </c>
+      <c r="D53" s="0" t="s">
         <v>182</v>
       </c>
-      <c r="B53" s="0" t="s">
-        <v>169</v>
-      </c>
-      <c r="C53" s="0" t="s">
-        <v>170</v>
-      </c>
-      <c r="D53" s="0" t="s">
+      <c r="F53" s="0" t="s">
         <v>183</v>
-      </c>
-      <c r="F53" s="0" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
+        <v>184</v>
+      </c>
+      <c r="B54" s="0" t="s">
+        <v>168</v>
+      </c>
+      <c r="C54" s="0" t="s">
+        <v>169</v>
+      </c>
+      <c r="D54" s="0" t="s">
         <v>185</v>
       </c>
-      <c r="B54" s="0" t="s">
-        <v>169</v>
-      </c>
-      <c r="C54" s="0" t="s">
-        <v>170</v>
-      </c>
-      <c r="D54" s="0" t="s">
+      <c r="F54" s="0" t="s">
         <v>186</v>
-      </c>
-      <c r="F54" s="0" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
+        <v>187</v>
+      </c>
+      <c r="B55" s="0" t="s">
+        <v>168</v>
+      </c>
+      <c r="C55" s="0" t="s">
+        <v>169</v>
+      </c>
+      <c r="D55" s="0" t="s">
         <v>188</v>
       </c>
-      <c r="B55" s="0" t="s">
-        <v>169</v>
-      </c>
-      <c r="C55" s="0" t="s">
-        <v>170</v>
-      </c>
-      <c r="D55" s="0" t="s">
+      <c r="F55" s="0" t="s">
         <v>189</v>
-      </c>
-      <c r="F55" s="0" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
+        <v>190</v>
+      </c>
+      <c r="B56" s="0" t="s">
+        <v>168</v>
+      </c>
+      <c r="C56" s="0" t="s">
+        <v>169</v>
+      </c>
+      <c r="D56" s="0" t="s">
         <v>191</v>
       </c>
-      <c r="B56" s="0" t="s">
-        <v>169</v>
-      </c>
-      <c r="C56" s="0" t="s">
-        <v>170</v>
-      </c>
-      <c r="D56" s="0" t="s">
+      <c r="F56" s="0" t="s">
         <v>192</v>
-      </c>
-      <c r="F56" s="0" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
+        <v>193</v>
+      </c>
+      <c r="B57" s="0" t="s">
+        <v>168</v>
+      </c>
+      <c r="C57" s="0" t="s">
+        <v>169</v>
+      </c>
+      <c r="D57" s="0" t="s">
         <v>194</v>
       </c>
-      <c r="B57" s="0" t="s">
-        <v>169</v>
-      </c>
-      <c r="C57" s="0" t="s">
-        <v>170</v>
-      </c>
-      <c r="D57" s="0" t="s">
+      <c r="F57" s="0" t="s">
         <v>195</v>
-      </c>
-      <c r="F57" s="0" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
+        <v>196</v>
+      </c>
+      <c r="B58" s="0" t="s">
+        <v>168</v>
+      </c>
+      <c r="C58" s="0" t="s">
+        <v>169</v>
+      </c>
+      <c r="D58" s="0" t="s">
         <v>197</v>
       </c>
-      <c r="B58" s="0" t="s">
-        <v>169</v>
-      </c>
-      <c r="C58" s="0" t="s">
-        <v>170</v>
-      </c>
-      <c r="D58" s="0" t="s">
+      <c r="F58" s="0" t="s">
         <v>198</v>
-      </c>
-      <c r="F58" s="0" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
+        <v>199</v>
+      </c>
+      <c r="B59" s="0" t="s">
+        <v>168</v>
+      </c>
+      <c r="C59" s="0" t="s">
+        <v>169</v>
+      </c>
+      <c r="D59" s="0" t="s">
         <v>200</v>
       </c>
-      <c r="B59" s="0" t="s">
-        <v>169</v>
-      </c>
-      <c r="C59" s="0" t="s">
-        <v>170</v>
-      </c>
-      <c r="D59" s="0" t="s">
+      <c r="E59" s="0" t="s">
         <v>201</v>
       </c>
-      <c r="E59" s="0" t="s">
+      <c r="F59" s="0" t="s">
         <v>202</v>
-      </c>
-      <c r="F59" s="0" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
+        <v>203</v>
+      </c>
+      <c r="B60" s="0" t="s">
+        <v>168</v>
+      </c>
+      <c r="C60" s="0" t="s">
+        <v>169</v>
+      </c>
+      <c r="D60" s="0" t="s">
         <v>204</v>
       </c>
-      <c r="B60" s="0" t="s">
-        <v>169</v>
-      </c>
-      <c r="C60" s="0" t="s">
-        <v>170</v>
-      </c>
-      <c r="D60" s="0" t="s">
+      <c r="F60" s="0" t="s">
         <v>205</v>
-      </c>
-      <c r="F60" s="0" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
+        <v>206</v>
+      </c>
+      <c r="B61" s="0" t="s">
+        <v>168</v>
+      </c>
+      <c r="C61" s="0" t="s">
+        <v>169</v>
+      </c>
+      <c r="D61" s="0" t="s">
         <v>207</v>
       </c>
-      <c r="B61" s="0" t="s">
-        <v>169</v>
-      </c>
-      <c r="C61" s="0" t="s">
-        <v>170</v>
-      </c>
-      <c r="D61" s="0" t="s">
+      <c r="F61" s="0" t="s">
         <v>208</v>
-      </c>
-      <c r="F61" s="0" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="B62" s="0" t="s">
+        <v>168</v>
+      </c>
+      <c r="C62" s="0" t="s">
+        <v>169</v>
+      </c>
+      <c r="D62" s="0" t="s">
         <v>210</v>
       </c>
-      <c r="B62" s="0" t="s">
-        <v>169</v>
-      </c>
-      <c r="C62" s="0" t="s">
-        <v>170</v>
-      </c>
-      <c r="D62" s="0" t="s">
+      <c r="F62" s="0" t="s">
         <v>211</v>
-      </c>
-      <c r="F62" s="0" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
+        <v>212</v>
+      </c>
+      <c r="B63" s="0" t="s">
+        <v>168</v>
+      </c>
+      <c r="C63" s="0" t="s">
+        <v>169</v>
+      </c>
+      <c r="D63" s="0" t="s">
         <v>213</v>
       </c>
-      <c r="B63" s="0" t="s">
-        <v>169</v>
-      </c>
-      <c r="C63" s="0" t="s">
-        <v>170</v>
-      </c>
-      <c r="D63" s="0" t="s">
+      <c r="E63" s="0" t="s">
         <v>214</v>
       </c>
-      <c r="E63" s="0" t="s">
+      <c r="F63" s="0" t="s">
         <v>215</v>
-      </c>
-      <c r="F63" s="0" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
+        <v>216</v>
+      </c>
+      <c r="B64" s="0" t="s">
+        <v>168</v>
+      </c>
+      <c r="C64" s="0" t="s">
+        <v>169</v>
+      </c>
+      <c r="D64" s="0" t="s">
         <v>217</v>
       </c>
-      <c r="B64" s="0" t="s">
-        <v>169</v>
-      </c>
-      <c r="C64" s="0" t="s">
-        <v>170</v>
-      </c>
-      <c r="D64" s="0" t="s">
+      <c r="F64" s="0" t="s">
         <v>218</v>
-      </c>
-      <c r="F64" s="0" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
+        <v>219</v>
+      </c>
+      <c r="B65" s="0" t="s">
+        <v>168</v>
+      </c>
+      <c r="C65" s="0" t="s">
+        <v>169</v>
+      </c>
+      <c r="D65" s="0" t="s">
         <v>220</v>
       </c>
-      <c r="B65" s="0" t="s">
-        <v>169</v>
-      </c>
-      <c r="C65" s="0" t="s">
-        <v>170</v>
-      </c>
-      <c r="D65" s="0" t="s">
+      <c r="F65" s="0" t="s">
         <v>221</v>
-      </c>
-      <c r="F65" s="0" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
+        <v>222</v>
+      </c>
+      <c r="B66" s="0" t="s">
+        <v>168</v>
+      </c>
+      <c r="C66" s="0" t="s">
+        <v>169</v>
+      </c>
+      <c r="D66" s="0" t="s">
         <v>223</v>
       </c>
-      <c r="B66" s="0" t="s">
-        <v>169</v>
-      </c>
-      <c r="C66" s="0" t="s">
-        <v>170</v>
-      </c>
-      <c r="D66" s="0" t="s">
+      <c r="F66" s="0" t="s">
         <v>224</v>
-      </c>
-      <c r="F66" s="0" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
+        <v>225</v>
+      </c>
+      <c r="B67" s="0" t="s">
+        <v>168</v>
+      </c>
+      <c r="C67" s="0" t="s">
+        <v>169</v>
+      </c>
+      <c r="D67" s="0" t="s">
         <v>226</v>
       </c>
-      <c r="B67" s="0" t="s">
-        <v>169</v>
-      </c>
-      <c r="C67" s="0" t="s">
-        <v>170</v>
-      </c>
-      <c r="D67" s="0" t="s">
+      <c r="E67" s="0" t="s">
         <v>227</v>
       </c>
-      <c r="E67" s="0" t="s">
+      <c r="F67" s="0" t="s">
         <v>228</v>
-      </c>
-      <c r="F67" s="0" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
+        <v>229</v>
+      </c>
+      <c r="B68" s="0" t="s">
+        <v>168</v>
+      </c>
+      <c r="C68" s="0" t="s">
+        <v>169</v>
+      </c>
+      <c r="D68" s="0" t="s">
         <v>230</v>
       </c>
-      <c r="B68" s="0" t="s">
-        <v>169</v>
-      </c>
-      <c r="C68" s="0" t="s">
-        <v>170</v>
-      </c>
-      <c r="D68" s="0" t="s">
+      <c r="E68" s="0" t="s">
         <v>231</v>
       </c>
-      <c r="E68" s="0" t="s">
+      <c r="F68" s="0" t="s">
         <v>232</v>
-      </c>
-      <c r="F68" s="0" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
+        <v>233</v>
+      </c>
+      <c r="B69" s="0" t="s">
+        <v>168</v>
+      </c>
+      <c r="C69" s="0" t="s">
+        <v>169</v>
+      </c>
+      <c r="D69" s="0" t="s">
         <v>234</v>
       </c>
-      <c r="B69" s="0" t="s">
-        <v>169</v>
-      </c>
-      <c r="C69" s="0" t="s">
-        <v>170</v>
-      </c>
-      <c r="D69" s="0" t="s">
+      <c r="F69" s="0" t="s">
         <v>235</v>
-      </c>
-      <c r="F69" s="0" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
+        <v>236</v>
+      </c>
+      <c r="B70" s="0" t="s">
+        <v>168</v>
+      </c>
+      <c r="C70" s="0" t="s">
+        <v>169</v>
+      </c>
+      <c r="D70" s="0" t="s">
         <v>237</v>
       </c>
-      <c r="B70" s="0" t="s">
-        <v>169</v>
-      </c>
-      <c r="C70" s="0" t="s">
-        <v>170</v>
-      </c>
-      <c r="D70" s="0" t="s">
+      <c r="F70" s="0" t="s">
         <v>238</v>
-      </c>
-      <c r="F70" s="0" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
+        <v>239</v>
+      </c>
+      <c r="B71" s="0" t="s">
+        <v>168</v>
+      </c>
+      <c r="C71" s="0" t="s">
+        <v>169</v>
+      </c>
+      <c r="D71" s="0" t="s">
         <v>240</v>
       </c>
-      <c r="B71" s="0" t="s">
-        <v>169</v>
-      </c>
-      <c r="C71" s="0" t="s">
-        <v>170</v>
-      </c>
-      <c r="D71" s="0" t="s">
+      <c r="F71" s="0" t="s">
         <v>241</v>
-      </c>
-      <c r="F71" s="0" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B72" s="0" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C72" s="0" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D72" s="0" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
+        <v>243</v>
+      </c>
+      <c r="B73" s="0" t="s">
+        <v>168</v>
+      </c>
+      <c r="C73" s="0" t="s">
+        <v>169</v>
+      </c>
+      <c r="D73" s="0" t="s">
         <v>244</v>
       </c>
-      <c r="B73" s="0" t="s">
-        <v>169</v>
-      </c>
-      <c r="C73" s="0" t="s">
-        <v>170</v>
-      </c>
-      <c r="D73" s="0" t="s">
+      <c r="F73" s="0" t="s">
         <v>245</v>
-      </c>
-      <c r="F73" s="0" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
+        <v>246</v>
+      </c>
+      <c r="B74" s="0" t="s">
+        <v>168</v>
+      </c>
+      <c r="C74" s="0" t="s">
+        <v>169</v>
+      </c>
+      <c r="D74" s="0" t="s">
         <v>247</v>
       </c>
-      <c r="B74" s="0" t="s">
-        <v>169</v>
-      </c>
-      <c r="C74" s="0" t="s">
-        <v>170</v>
-      </c>
-      <c r="D74" s="0" t="s">
+      <c r="F74" s="0" t="s">
         <v>248</v>
-      </c>
-      <c r="F74" s="0" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
+        <v>249</v>
+      </c>
+      <c r="B75" s="0" t="s">
+        <v>168</v>
+      </c>
+      <c r="C75" s="0" t="s">
+        <v>169</v>
+      </c>
+      <c r="D75" s="0" t="s">
         <v>250</v>
       </c>
-      <c r="B75" s="0" t="s">
-        <v>169</v>
-      </c>
-      <c r="C75" s="0" t="s">
-        <v>170</v>
-      </c>
-      <c r="D75" s="0" t="s">
+      <c r="F75" s="0" t="s">
         <v>251</v>
-      </c>
-      <c r="F75" s="0" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
+        <v>252</v>
+      </c>
+      <c r="B76" s="0" t="s">
+        <v>168</v>
+      </c>
+      <c r="C76" s="0" t="s">
+        <v>169</v>
+      </c>
+      <c r="D76" s="0" t="s">
         <v>253</v>
       </c>
-      <c r="B76" s="0" t="s">
-        <v>169</v>
-      </c>
-      <c r="C76" s="0" t="s">
-        <v>170</v>
-      </c>
-      <c r="D76" s="0" t="s">
+      <c r="F76" s="0" t="s">
         <v>254</v>
-      </c>
-      <c r="F76" s="0" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/CustomHatsGM.xlsx
+++ b/CustomHatsGM.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="256">
   <si>
     <t xml:space="preserve">name</t>
   </si>
@@ -746,6 +746,9 @@
   </si>
   <si>
     <t xml:space="preserve">Sreimari_c.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sreimari2</t>
   </si>
   <si>
     <t xml:space="preserve">Sreimari2.png</t>
@@ -910,7 +913,7 @@
   <dimension ref="A1:H1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A37" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C49" activeCellId="0" sqref="C49"/>
+      <selection pane="topLeft" activeCell="B69" activeCellId="0" sqref="B69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.88671875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2177,7 +2180,7 @@
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="B72" s="0" t="s">
         <v>168</v>
@@ -2186,12 +2189,12 @@
         <v>169</v>
       </c>
       <c r="D72" s="0" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B73" s="0" t="s">
         <v>168</v>
@@ -2200,15 +2203,15 @@
         <v>169</v>
       </c>
       <c r="D73" s="0" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="F73" s="0" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B74" s="0" t="s">
         <v>168</v>
@@ -2217,15 +2220,15 @@
         <v>169</v>
       </c>
       <c r="D74" s="0" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="F74" s="0" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B75" s="0" t="s">
         <v>168</v>
@@ -2234,15 +2237,15 @@
         <v>169</v>
       </c>
       <c r="D75" s="0" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="F75" s="0" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B76" s="0" t="s">
         <v>168</v>
@@ -2251,10 +2254,10 @@
         <v>169</v>
       </c>
       <c r="D76" s="0" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="F76" s="0" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/CustomHatsGM.xlsx
+++ b/CustomHatsGM.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="266">
   <si>
     <t xml:space="preserve">name</t>
   </si>
@@ -788,6 +788,36 @@
   </si>
   <si>
     <t xml:space="preserve">zennkopasu2_c.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Myakumyaku</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Memeta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">myakumyaku.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">myakumyaku_climb.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mosamosa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mosamosa_adaptive.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mosamosa_adaptive_climb.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Swan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">swan_adaptive.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">swan_climb_adaptive.png</t>
   </si>
 </sst>
 </file>
@@ -912,8 +942,8 @@
   </sheetPr>
   <dimension ref="A1:H1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A37" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B69" activeCellId="0" sqref="B69"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A52" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A78" activeCellId="0" sqref="A78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.88671875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2260,9 +2290,57 @@
         <v>255</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="0" t="s">
+        <v>256</v>
+      </c>
+      <c r="B77" s="0" t="s">
+        <v>257</v>
+      </c>
+      <c r="C77" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D77" s="0" t="s">
+        <v>258</v>
+      </c>
+      <c r="F77" s="0" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="0" t="s">
+        <v>260</v>
+      </c>
+      <c r="B78" s="0" t="s">
+        <v>257</v>
+      </c>
+      <c r="C78" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D78" s="0" t="s">
+        <v>261</v>
+      </c>
+      <c r="F78" s="0" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="0" t="s">
+        <v>263</v>
+      </c>
+      <c r="B79" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="C79" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D79" s="0" t="s">
+        <v>264</v>
+      </c>
+      <c r="F79" s="0" t="s">
+        <v>265</v>
+      </c>
+    </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/CustomHatsGM.xlsx
+++ b/CustomHatsGM.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="256">
   <si>
     <t xml:space="preserve">name</t>
   </si>
@@ -788,36 +788,6 @@
   </si>
   <si>
     <t xml:space="preserve">zennkopasu2_c.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Myakumyaku</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Memeta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">myakumyaku.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">myakumyaku_climb.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mosamosa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mosamosa_adaptive.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mosamosa_adaptive_climb.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Swan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">swan_adaptive.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">swan_climb_adaptive.png</t>
   </si>
 </sst>
 </file>
@@ -942,8 +912,8 @@
   </sheetPr>
   <dimension ref="A1:H1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A52" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A78" activeCellId="0" sqref="A78"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A37" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B69" activeCellId="0" sqref="B69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.88671875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2290,57 +2260,9 @@
         <v>255</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="0" t="s">
-        <v>256</v>
-      </c>
-      <c r="B77" s="0" t="s">
-        <v>257</v>
-      </c>
-      <c r="C77" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D77" s="0" t="s">
-        <v>258</v>
-      </c>
-      <c r="F77" s="0" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="0" t="s">
-        <v>260</v>
-      </c>
-      <c r="B78" s="0" t="s">
-        <v>257</v>
-      </c>
-      <c r="C78" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D78" s="0" t="s">
-        <v>261</v>
-      </c>
-      <c r="F78" s="0" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="0" t="s">
-        <v>263</v>
-      </c>
-      <c r="B79" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="C79" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D79" s="0" t="s">
-        <v>264</v>
-      </c>
-      <c r="F79" s="0" t="s">
-        <v>265</v>
-      </c>
-    </row>
+    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
